--- a/similarities/split_global/harmonic_similarity_timestamps_125.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_125.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:16.608639')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+          <t>('0:00:47.020000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:24.380000')]</t>
+          <t>('0:00:06.160000', '0:00:23.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:02:20.860000', '0:02:24.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=6.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=140.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']]</t>
+          <t>['G', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:26.040000', '0:00:58.880000')]</t>
+          <t>('0:00:06.180000', '0:00:13.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:21.560000')]</t>
+          <t>('0:01:02.879563', '0:01:11.679925')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=6.18</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:34.280000')]</t>
+          <t>('0:00:08.540000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.352018', '0:00:08.679455')]</t>
+          <t>('0:00:22.300000', '0:00:48.740000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=2.352018']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>isophonics_234</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'Eb:7/#5', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+          <t>('0:00:00.190000', '0:00:05.050000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:20.240000')]</t>
+          <t>('0:00:03.733000', '0:00:08.605000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=0.19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=3.733</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:15.640000', '0:00:24.280000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:17.120000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:38.220000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:23.420000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:00:06.940000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D#:min/F#', 'A#:maj/F', 'D#:min/F#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min/4', 'A', 'D:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:11.420000', '0:01:13.300000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:31.785035', '0:00:36.150690')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=71.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=31.785035']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:17.506000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:34.120000', '0:01:48.980000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=94.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:00:59.164000'), ('0:00:15.216000', '0:00:32.669000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:14.460000', '0:02:17.180000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:04.200000', '0:00:19.320000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=134.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=4.2']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:18.520000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+          <t>('0:00:19.400000', '0:00:44.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:11.160000', '0:00:18.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=11.16</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:51.960000', '0:00:58.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.260000', '0:00:24.340000')]</t>
+          <t>('0:00:45.970000', '0:00:52.390000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=51.96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=17.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=45.97</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
